--- a/biology/Botanique/Zamia/Zamia.xlsx
+++ b/biology/Botanique/Zamia/Zamia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zamia est un genre de plante qui appartient à la famille des Zamiacées. Le Genre est réparti essentiellement sur le continent américain (Mexique jusqu'en Bolivie en passant par les Antilles). Certaines espèces comme Zamia integrifolia peuvent être localisées aux États-Unis (Géorgie et la Floride).
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zamia forme habituellement des tubercules souterrains sans xylème prononcé. Certaines espèces forment un tronc hors-sol, qui peut atteindre 1,20 m de haut voire plus. 
 Deux types ont une forme de croissance dérivée : 
@@ -547,9 +561,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 juillet 2017) :
 Zamia acuminata Oerst. ex Dyer
 Zamia amazonum D.W.Stev.
 Zamia amplifolia W.Bull ex Mast.
